--- a/03_перерасход.xlsx
+++ b/03_перерасход.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.korolyov\Downloads\Новая папка (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n.korolyov\Desktop\mrp_tool_streamlit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D21665-7F47-4BD3-839F-9252777ECD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB9D83A-262D-4576-AC26-12CB58CF5D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{38ED98A5-AB33-4AB4-8C78-B062358FBC3E}"/>
+    <workbookView xWindow="-26192" yWindow="-109" windowWidth="26301" windowHeight="14305" xr2:uid="{38ED98A5-AB33-4AB4-8C78-B062358FBC3E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
     <t>Коэффициент брака производство</t>
   </si>
   <si>
-    <t>ЕР-код</t>
+    <t>Код</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9610E548-9C42-41D8-BD20-26717441155A}">
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.9" x14ac:dyDescent="0.2"/>
   <cols>
